--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.9007627174468</v>
+        <v>106.3055973333333</v>
       </c>
       <c r="H2">
-        <v>27.9007627174468</v>
+        <v>318.916792</v>
       </c>
       <c r="I2">
-        <v>0.08313722423683835</v>
+        <v>0.2547398208373942</v>
       </c>
       <c r="J2">
-        <v>0.08313722423683835</v>
+        <v>0.2547398208373942</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N2">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>87.20947527342248</v>
+        <v>778.3620714124551</v>
       </c>
       <c r="R2">
-        <v>87.20947527342248</v>
+        <v>7005.258642712096</v>
       </c>
       <c r="S2">
-        <v>0.08313722423683835</v>
+        <v>0.2547398208373942</v>
       </c>
       <c r="T2">
-        <v>0.08313722423683835</v>
+        <v>0.2547398208373942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>293.91255438341</v>
+        <v>296.1091513333333</v>
       </c>
       <c r="H3">
-        <v>293.91255438341</v>
+        <v>888.327454</v>
       </c>
       <c r="I3">
-        <v>0.8757851599704066</v>
+        <v>0.7095655736964096</v>
       </c>
       <c r="J3">
-        <v>0.8757851599704066</v>
+        <v>0.7095655736964096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N3">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>918.6831164303748</v>
+        <v>2168.090281015972</v>
       </c>
       <c r="R3">
-        <v>918.6831164303748</v>
+        <v>19512.81252914375</v>
       </c>
       <c r="S3">
-        <v>0.8757851599704066</v>
+        <v>0.7095655736964096</v>
       </c>
       <c r="T3">
-        <v>0.8757851599704066</v>
+        <v>0.7095655736964096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.7856035218008</v>
+        <v>14.895733</v>
       </c>
       <c r="H4">
-        <v>13.7856035218008</v>
+        <v>44.68719899999999</v>
       </c>
       <c r="I4">
-        <v>0.04107761579275496</v>
+        <v>0.03569460546619627</v>
       </c>
       <c r="J4">
-        <v>0.04107761579275496</v>
+        <v>0.03569460546619627</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N4">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>43.08969119012347</v>
+        <v>109.0655043942013</v>
       </c>
       <c r="R4">
-        <v>43.08969119012347</v>
+        <v>981.5895395478118</v>
       </c>
       <c r="S4">
-        <v>0.04107761579275496</v>
+        <v>0.03569460546619627</v>
       </c>
       <c r="T4">
-        <v>0.04107761579275496</v>
+        <v>0.03569460546619627</v>
       </c>
     </row>
   </sheetData>
